--- a/data/inventario_minsalBaseOriginal.xlsx
+++ b/data/inventario_minsalBaseOriginal.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\sistema_inventariosMinsal\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6381E6C2-164D-4F0A-9A96-8C9E6459B386}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82E9AFF5-A635-4367-AE90-5B72D5A9BC02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{33EF6376-3F5A-46D1-9B87-DA96CC38AB62}"/>
+    <workbookView xWindow="36" yWindow="1884" windowWidth="17280" windowHeight="8880" activeTab="3" xr2:uid="{33EF6376-3F5A-46D1-9B87-DA96CC38AB62}"/>
   </bookViews>
   <sheets>
     <sheet name="Catálogo" sheetId="1" r:id="rId1"/>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="231">
   <si>
     <t>Código</t>
   </si>
@@ -602,12 +602,6 @@
     <t>01/07/2027</t>
   </si>
   <si>
-    <t>20/07/2025</t>
-  </si>
-  <si>
-    <t>20/07/2027</t>
-  </si>
-  <si>
     <t>10/08/2025</t>
   </si>
   <si>
@@ -752,9 +746,6 @@
     <t>Donación</t>
   </si>
   <si>
-    <t>Cantidad Despachada</t>
-  </si>
-  <si>
     <t>Cant_Actual</t>
   </si>
   <si>
@@ -762,6 +753,9 @@
   </si>
   <si>
     <t>Presentacion</t>
+  </si>
+  <si>
+    <t>Cantidad_Despachada</t>
   </si>
 </sst>
 </file>
@@ -771,7 +765,7 @@
   <numFmts count="3">
     <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
-    <numFmt numFmtId="166" formatCode="dd/mm/yyyy;@"/>
+    <numFmt numFmtId="165" formatCode="dd/mm/yyyy;@"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -925,13 +919,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -1257,7 +1251,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{275FD917-88A1-4BCB-B444-9B25C23BB9C3}">
   <dimension ref="A1:J23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -1277,7 +1271,7 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
@@ -1948,8 +1942,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCCC6A64-6EEC-4F9D-92CD-772FEB3A9BD0}">
   <dimension ref="A1:K22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:H1048576"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="E18" sqref="A18:XFD18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1985,7 +1979,7 @@
         <v>12</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="G1" s="26" t="s">
         <v>13</v>
@@ -1997,7 +1991,7 @@
         <v>15</v>
       </c>
       <c r="J1" s="10" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
@@ -2047,7 +2041,7 @@
         <v>Paracetamol</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E3" s="10">
         <v>500</v>
@@ -2117,7 +2111,7 @@
         <v>Omeprazol</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E5" s="10">
         <v>10000</v>
@@ -2580,11 +2574,11 @@
       <c r="F18">
         <v>7900</v>
       </c>
-      <c r="G18" s="26" t="s">
-        <v>179</v>
-      </c>
-      <c r="H18" s="26" t="s">
-        <v>180</v>
+      <c r="G18" s="26">
+        <v>45950</v>
+      </c>
+      <c r="H18" s="26">
+        <v>45981</v>
       </c>
       <c r="I18" s="11">
         <f>VLOOKUP(B18,Catálogo!A:F,5,FALSE)</f>
@@ -2592,7 +2586,7 @@
       </c>
       <c r="J18" s="10" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>✅ Activo</v>
+        <v>⚠️ Por Vencer</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
@@ -2616,10 +2610,10 @@
         <v>5900</v>
       </c>
       <c r="G19" s="26" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="H19" s="26" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="I19" s="11">
         <f>VLOOKUP(B19,Catálogo!A:F,5,FALSE)</f>
@@ -2651,7 +2645,7 @@
         <v>6700</v>
       </c>
       <c r="G20" s="26" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="H20" s="26">
         <v>45915</v>
@@ -2686,10 +2680,10 @@
         <v>3900</v>
       </c>
       <c r="G21" s="26" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="H21" s="26" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="I21" s="11">
         <f>VLOOKUP(B21,Catálogo!A:F,5,FALSE)</f>
@@ -2771,10 +2765,10 @@
         <v>96</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="H1" s="7" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="I1" s="7" t="s">
         <v>11</v>
@@ -2878,7 +2872,7 @@
         <v xml:space="preserve">Compra Nacional </v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="J3" s="6">
         <f>VLOOKUP(I3,Inventario_Lotes!$D:$J,2,FALSE)</f>
@@ -2959,10 +2953,10 @@
         <v>45809</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D5" s="7" t="s">
         <v>51</v>
@@ -2984,7 +2978,7 @@
         <v xml:space="preserve">Compra Nacional </v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="J5" s="6">
         <f>VLOOKUP(I5,Inventario_Lotes!$D:$J,2,FALSE)</f>
@@ -3012,10 +3006,10 @@
         <v>45723</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D6" s="7" t="s">
         <v>54</v>
@@ -3065,10 +3059,10 @@
         <v>45787</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D7" s="7" t="s">
         <v>57</v>
@@ -3118,10 +3112,10 @@
         <v>45666</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D8" s="7" t="s">
         <v>60</v>
@@ -3171,10 +3165,10 @@
         <v>45856</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D9" s="7" t="s">
         <v>63</v>
@@ -3224,10 +3218,10 @@
         <v>45891</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D10" s="7" t="s">
         <v>106</v>
@@ -3277,10 +3271,10 @@
         <v>45895</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D11" s="7" t="s">
         <v>111</v>
@@ -3330,10 +3324,10 @@
         <v>45898</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D12" s="7" t="s">
         <v>112</v>
@@ -3383,10 +3377,10 @@
         <v>45900</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D13" s="7" t="s">
         <v>113</v>
@@ -3436,10 +3430,10 @@
         <v>45901</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D14" s="7" t="s">
         <v>114</v>
@@ -3489,10 +3483,10 @@
         <v>45904</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D15" s="7" t="s">
         <v>115</v>
@@ -3542,10 +3536,10 @@
         <v>45690</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D16" s="7" t="s">
         <v>116</v>
@@ -3595,10 +3589,10 @@
         <v>45908</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D17" s="7" t="s">
         <v>117</v>
@@ -3648,10 +3642,10 @@
         <v>45925</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D18" s="7" t="s">
         <v>118</v>
@@ -3666,7 +3660,7 @@
       </c>
       <c r="G18" t="str">
         <f ca="1">IFERROR(VLOOKUP(I18,Inventario_Lotes!$D:$J,7,FALSE),"No encontrado")</f>
-        <v>✅ Activo</v>
+        <v>⚠️ Por Vencer</v>
       </c>
       <c r="H18" t="str">
         <f>IFERROR(VLOOKUP(C18,Proveedores!$A$2:$B$50,2,FALSE),"Definir")</f>
@@ -3701,10 +3695,10 @@
         <v>45931</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D19" s="7" t="s">
         <v>119</v>
@@ -3754,10 +3748,10 @@
         <v>45934</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D20" s="7" t="s">
         <v>120</v>
@@ -3807,10 +3801,10 @@
         <v>45956</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D21" s="7" t="s">
         <v>121</v>
@@ -4010,8 +4004,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{953FA125-C20F-4A67-8AC4-5554B9900DC5}">
   <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:G1048576"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4048,7 +4042,7 @@
         <v>11</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="H1" s="20" t="s">
         <v>15</v>
@@ -4081,7 +4075,7 @@
         <v>67</v>
       </c>
       <c r="G2" s="6">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="H2" s="21">
         <f>IFERROR(VLOOKUP(TRIM(F2),Inventario_Lotes!D:I,6,FALSE),"❌ No encontrado")</f>
@@ -4089,7 +4083,7 @@
       </c>
       <c r="I2" s="13">
         <f>IFERROR(G2*H2,"")</f>
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="J2" s="6" t="s">
         <v>84</v>
@@ -4102,18 +4096,6 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xWindow="466" yWindow="398" count="1">
-        <x14:dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{DD587928-2E3C-40ED-A578-3472C073F8DF}">
-          <x14:formula1>
-            <xm:f>IFERROR(G2&lt;=VLOOKUP(D2,Catálogo!$A:$I,9,FALSE),TRUE)</xm:f>
-          </x14:formula1>
-          <xm:sqref>G1:G1048576</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -4248,7 +4230,7 @@
       </c>
       <c r="F10" s="2">
         <f>IFERROR(VLOOKUP(E10,Libro_Salidas!D:I,6,FALSE),0)</f>
-        <v>6000</v>
+        <v>12000</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
@@ -4269,7 +4251,7 @@
       </c>
       <c r="G11" s="14">
         <f>IFERROR(VLOOKUP(E11,Libro_Salidas!D:I,6,FALSE),0)</f>
-        <v>6000</v>
+        <v>12000</v>
       </c>
     </row>
   </sheetData>
@@ -4371,11 +4353,11 @@
       </c>
       <c r="E5" s="2">
         <f>IFERROR(VLOOKUP(B5,Libro_Salidas!A:J,9,FALSE),0)</f>
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="F5" s="22">
         <f xml:space="preserve"> F4 + D5 - E5</f>
-        <v>34000</v>
+        <v>28000</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -4387,7 +4369,7 @@
       </c>
       <c r="F7" s="23" cm="1">
         <f t="array" ref="F7">LOOKUP(2,1/(VALUE(F3:F6)&lt;&gt;0),VALUE(F3:F6))</f>
-        <v>34000</v>
+        <v>28000</v>
       </c>
     </row>
   </sheetData>
@@ -5075,7 +5057,7 @@
       </c>
       <c r="D36" t="str">
         <f ca="1">IF(B36&lt;&gt;"","Lote vence el "&amp;TEXT(VLOOKUP(B36,Inventario_Lotes!D:H,5,FALSE),"dd/mm/aaaa")&amp;" ("&amp;ROUND((VLOOKUP(B36,Inventario_Lotes!D:H,5,FALSE)-TODAY()),0)&amp;" días)","")</f>
-        <v>Lote vence el 01/08/jueves (-452 días)</v>
+        <v>Lote vence el 01/08/jueves (-453 días)</v>
       </c>
       <c r="E36" t="str">
         <f ca="1">IF(B36&lt;&gt;"","⚠️ USAR PRIORITARIAMENTE","")</f>
@@ -5159,7 +5141,7 @@
       </c>
       <c r="D40" t="str">
         <f ca="1">IF(B40&lt;&gt;"","Lote vence el "&amp;TEXT(VLOOKUP(B40,Inventario_Lotes!D:H,5,FALSE),"dd/mm/aaaa")&amp;" ("&amp;ROUND((VLOOKUP(B40,Inventario_Lotes!D:H,5,FALSE)-TODAY()),0)&amp;" días)","")</f>
-        <v>Lote vence el 10/11/lunes (14 días)</v>
+        <v>Lote vence el 10/11/lunes (13 días)</v>
       </c>
       <c r="E40" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -5397,10 +5379,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -5408,7 +5390,7 @@
         <v>76</v>
       </c>
       <c r="B2" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -5416,7 +5398,7 @@
         <v>79</v>
       </c>
       <c r="B3" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -5424,143 +5406,143 @@
         <v>81</v>
       </c>
       <c r="B4" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B5" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B6" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B7" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B8" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B9" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B10" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B11" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B12" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B13" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B14" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B15" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B16" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="6" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B17" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B18" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="6" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B19" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="6" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B20" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="6" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B21" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
   </sheetData>

--- a/data/inventario_minsalBaseOriginal.xlsx
+++ b/data/inventario_minsalBaseOriginal.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\sistema_inventariosMinsal\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82E9AFF5-A635-4367-AE90-5B72D5A9BC02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76C43D26-5FF7-4A06-8FC2-81490C4E755A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="36" yWindow="1884" windowWidth="17280" windowHeight="8880" activeTab="3" xr2:uid="{33EF6376-3F5A-46D1-9B87-DA96CC38AB62}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{33EF6376-3F5A-46D1-9B87-DA96CC38AB62}"/>
   </bookViews>
   <sheets>
     <sheet name="Catálogo" sheetId="1" r:id="rId1"/>
@@ -22,6 +22,9 @@
     <sheet name="Alertas" sheetId="7" r:id="rId7"/>
     <sheet name="Proveedores" sheetId="8" r:id="rId8"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Catálogo!$F$1:$F$23</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -63,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="221">
   <si>
     <t>Código</t>
   </si>
@@ -131,9 +134,6 @@
     <t>Subtotal</t>
   </si>
   <si>
-    <t>IVA_13%</t>
-  </si>
-  <si>
     <t>Total</t>
   </si>
   <si>
@@ -317,36 +317,9 @@
     <t>Hospital Rosales</t>
   </si>
   <si>
-    <t>Dra. María López</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Compra Insulina NPH - Fact. F-001234 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Inventario de Medicamentos </t>
-  </si>
-  <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t xml:space="preserve"> IVA Crédito Fiscal </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 20/08/2025 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Despacho Hospital Rosales - D-00125 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Costo de Medicamentos Despachados </t>
-  </si>
-  <si>
-    <t>INVENTARIO DE MEDICAMENTOS</t>
-  </si>
-  <si>
-    <t>SALDO FINAL</t>
-  </si>
-  <si>
     <t>🔴 Stock Crítico</t>
   </si>
   <si>
@@ -356,9 +329,6 @@
     <t>Clase_Abc</t>
   </si>
   <si>
-    <t xml:space="preserve">Cuentas por Pagar </t>
-  </si>
-  <si>
     <t xml:space="preserve"> L005</t>
   </si>
   <si>
@@ -756,6 +726,9 @@
   </si>
   <si>
     <t>Cantidad_Despachada</t>
+  </si>
+  <si>
+    <t>IVA_13</t>
   </si>
 </sst>
 </file>
@@ -1251,8 +1224,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{275FD917-88A1-4BCB-B444-9B25C23BB9C3}">
   <dimension ref="A1:J23"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1271,7 +1244,7 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>229</v>
+        <v>218</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
@@ -1294,22 +1267,22 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="3">
+        <v>1.4</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>40</v>
-      </c>
-      <c r="E2" s="3">
-        <v>40</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>41</v>
       </c>
       <c r="G2" s="1">
         <v>500</v>
@@ -1325,22 +1298,22 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>45</v>
       </c>
       <c r="E3" s="3">
         <v>0.1</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G3" s="1">
         <v>10000</v>
@@ -1356,22 +1329,22 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>49</v>
-      </c>
       <c r="D4" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E4" s="3">
         <v>0.25</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="G4" s="1">
         <v>2000</v>
@@ -1387,22 +1360,22 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="C5" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>52</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>53</v>
       </c>
       <c r="E5" s="3">
         <v>0.12</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G5" s="1">
         <v>5000</v>
@@ -1418,22 +1391,22 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="C6" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>55</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>56</v>
       </c>
       <c r="E6" s="3">
         <v>0.08</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G6" s="1">
         <v>8000</v>
@@ -1449,22 +1422,22 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="C7" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>58</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>59</v>
       </c>
       <c r="E7" s="3">
         <v>0.06</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G7" s="1">
         <v>10000</v>
@@ -1480,22 +1453,22 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="C8" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>61</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>62</v>
       </c>
       <c r="E8" s="3">
         <v>0.05</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G8" s="1">
         <v>8000</v>
@@ -1511,22 +1484,22 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="C9" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>64</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>65</v>
       </c>
       <c r="E9" s="3">
         <v>0.03</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="G9" s="1">
         <v>5000</v>
@@ -1542,22 +1515,22 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="E10" s="3">
         <v>0.4</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="G10" s="1">
         <v>2000</v>
@@ -1573,22 +1546,22 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B11" t="s">
         <v>111</v>
       </c>
-      <c r="B11" t="s">
-        <v>122</v>
-      </c>
       <c r="C11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D11" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
       <c r="E11" s="2">
         <v>0.02</v>
       </c>
       <c r="F11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G11">
         <v>3000</v>
@@ -1604,22 +1577,22 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B12" t="s">
         <v>112</v>
       </c>
-      <c r="B12" t="s">
-        <v>123</v>
-      </c>
       <c r="C12" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="D12" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="E12" s="2">
         <v>0.85</v>
       </c>
       <c r="F12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G12">
         <v>800</v>
@@ -1635,22 +1608,22 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B13" t="s">
         <v>113</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" t="s">
+        <v>43</v>
+      </c>
+      <c r="D13" t="s">
         <v>124</v>
-      </c>
-      <c r="C13" t="s">
-        <v>44</v>
-      </c>
-      <c r="D13" t="s">
-        <v>135</v>
       </c>
       <c r="E13" s="2">
         <v>0.05</v>
       </c>
       <c r="F13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G13">
         <v>6000</v>
@@ -1666,22 +1639,22 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B14" t="s">
         <v>114</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C14" t="s">
+        <v>43</v>
+      </c>
+      <c r="D14" t="s">
         <v>125</v>
-      </c>
-      <c r="C14" t="s">
-        <v>44</v>
-      </c>
-      <c r="D14" t="s">
-        <v>136</v>
       </c>
       <c r="E14" s="2">
         <v>0.02</v>
       </c>
       <c r="F14" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="G14">
         <v>2000</v>
@@ -1697,22 +1670,22 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B15" t="s">
         <v>115</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C15" t="s">
+        <v>43</v>
+      </c>
+      <c r="D15" t="s">
         <v>126</v>
-      </c>
-      <c r="C15" t="s">
-        <v>44</v>
-      </c>
-      <c r="D15" t="s">
-        <v>137</v>
       </c>
       <c r="E15" s="2">
         <v>0.04</v>
       </c>
       <c r="F15" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="G15">
         <v>3000</v>
@@ -1728,22 +1701,22 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B16" t="s">
         <v>116</v>
       </c>
-      <c r="B16" t="s">
+      <c r="C16" t="s">
+        <v>43</v>
+      </c>
+      <c r="D16" t="s">
         <v>127</v>
-      </c>
-      <c r="C16" t="s">
-        <v>44</v>
-      </c>
-      <c r="D16" t="s">
-        <v>138</v>
       </c>
       <c r="E16" s="2">
         <v>0.65</v>
       </c>
       <c r="F16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G16">
         <v>1000</v>
@@ -1759,22 +1732,22 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B17" t="s">
         <v>117</v>
       </c>
-      <c r="B17" t="s">
+      <c r="C17" t="s">
+        <v>43</v>
+      </c>
+      <c r="D17" t="s">
         <v>128</v>
-      </c>
-      <c r="C17" t="s">
-        <v>44</v>
-      </c>
-      <c r="D17" t="s">
-        <v>139</v>
       </c>
       <c r="E17" s="2">
         <v>0.09</v>
       </c>
       <c r="F17" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="G17">
         <v>4000</v>
@@ -1790,22 +1763,22 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B18" t="s">
         <v>118</v>
       </c>
-      <c r="B18" t="s">
-        <v>129</v>
-      </c>
       <c r="C18" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D18" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
       <c r="E18" s="2">
         <v>0.06</v>
       </c>
       <c r="F18" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="G18">
         <v>3000</v>
@@ -1821,22 +1794,22 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B19" t="s">
         <v>119</v>
       </c>
-      <c r="B19" t="s">
-        <v>130</v>
-      </c>
       <c r="C19" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D19" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="E19" s="2">
         <v>0.22</v>
       </c>
       <c r="F19" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G19">
         <v>2500</v>
@@ -1852,22 +1825,22 @@
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B20" t="s">
         <v>120</v>
       </c>
-      <c r="B20" t="s">
-        <v>131</v>
-      </c>
       <c r="C20" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D20" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="E20" s="2">
         <v>0.11</v>
       </c>
       <c r="F20" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="G20">
         <v>2000</v>
@@ -1883,22 +1856,22 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B21" t="s">
         <v>121</v>
       </c>
-      <c r="B21" t="s">
-        <v>132</v>
-      </c>
       <c r="C21" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="D21" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="E21" s="2">
         <v>1.2</v>
       </c>
       <c r="F21" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G21">
         <v>500</v>
@@ -1919,6 +1892,7 @@
       <c r="A23" s="1"/>
     </row>
   </sheetData>
+  <autoFilter ref="F1:F23" xr:uid="{275FD917-88A1-4BCB-B444-9B25C23BB9C3}"/>
   <phoneticPr fontId="4" type="noConversion"/>
   <dataValidations count="4">
     <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1:A1048576" xr:uid="{48231631-FB46-4C09-8F97-C2B97E15554D}">
@@ -1942,7 +1916,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCCC6A64-6EEC-4F9D-92CD-772FEB3A9BD0}">
   <dimension ref="A1:K22"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
+    <sheetView topLeftCell="A5" workbookViewId="0">
       <selection activeCell="E18" sqref="A18:XFD18"/>
     </sheetView>
   </sheetViews>
@@ -1979,7 +1953,7 @@
         <v>12</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>227</v>
+        <v>216</v>
       </c>
       <c r="G1" s="26" t="s">
         <v>13</v>
@@ -1991,22 +1965,22 @@
         <v>15</v>
       </c>
       <c r="J1" s="10" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C2" s="10" t="str">
         <f>VLOOKUP(B2,Catálogo!A:B,2,0)</f>
         <v>Insulina NPH</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E2" s="10">
         <v>1000</v>
@@ -2022,7 +1996,7 @@
       </c>
       <c r="I2" s="11">
         <f>VLOOKUP(B2,Catálogo!A:F,5,FALSE)</f>
-        <v>40</v>
+        <v>1.4</v>
       </c>
       <c r="J2" s="1" t="str">
         <f t="shared" ref="J2:J21" ca="1" si="0">IF(F2&lt;=0,"❌ Agotado",IF((H2-TODAY())&lt;=30,"⚠️ Por Vencer","✅ Activo"))</f>
@@ -2031,17 +2005,17 @@
     </row>
     <row r="3" spans="1:10" ht="115.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C3" s="10" t="str">
         <f>VLOOKUP(B3,Catálogo!A:B,2,0)</f>
         <v>Paracetamol</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
       <c r="E3" s="10">
         <v>500</v>
@@ -2050,7 +2024,7 @@
         <v>300</v>
       </c>
       <c r="G3" s="26" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H3" s="26">
         <v>46614</v>
@@ -2066,17 +2040,17 @@
     </row>
     <row r="4" spans="1:10" ht="87.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C4" s="10" t="str">
         <f>VLOOKUP(B4,Catálogo!A:B,2,0)</f>
         <v>Amoxicilina</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E4" s="10">
         <v>50000</v>
@@ -2085,7 +2059,7 @@
         <v>9210</v>
       </c>
       <c r="G4" s="26" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H4" s="26">
         <v>46548</v>
@@ -2101,17 +2075,17 @@
     </row>
     <row r="5" spans="1:10" ht="99.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C5" s="10" t="str">
         <f>VLOOKUP(B5,Catálogo!A:B,2,0)</f>
         <v>Omeprazol</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="E5" s="10">
         <v>10000</v>
@@ -2120,7 +2094,7 @@
         <v>9300</v>
       </c>
       <c r="G5" s="26" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H5" s="27">
         <v>46278</v>
@@ -2136,17 +2110,17 @@
     </row>
     <row r="6" spans="1:10" ht="49.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="10" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C6" s="10" t="str">
         <f>VLOOKUP(B6,Catálogo!A:B,2,0)</f>
         <v>Losartán</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="E6" s="10">
         <v>8000</v>
@@ -2171,17 +2145,17 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="10" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C7" s="10" t="str">
         <f>VLOOKUP(B7,Catálogo!A:B,2,0)</f>
         <v>Metformina</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="E7" s="10">
         <v>10000</v>
@@ -2206,17 +2180,17 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="10" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C8" s="10" t="str">
         <f>VLOOKUP(B8,Catálogo!A:B,2,0)</f>
         <v>Enalapril</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="E8" s="10">
         <v>8000</v>
@@ -2241,17 +2215,17 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="10" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C9" s="10" t="str">
         <f>VLOOKUP(B9,Catálogo!A:B,2,0)</f>
         <v>Ibuprofeno</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="E9" s="10">
         <v>5000</v>
@@ -2276,17 +2250,17 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="10" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="C10" s="10" t="str">
         <f>VLOOKUP(B10,Catálogo!A:B,2,0)</f>
         <v>Aspirina</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="E10" s="10">
         <v>5000</v>
@@ -2311,17 +2285,17 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="10" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="C11" s="10" t="str">
         <f>VLOOKUP(B11,Catálogo!A:B,2,0)</f>
         <v>Ácido Fólico</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="E11">
         <v>6000</v>
@@ -2330,10 +2304,10 @@
         <v>5800</v>
       </c>
       <c r="G11" s="26" t="s">
-        <v>165</v>
+        <v>154</v>
       </c>
       <c r="H11" s="26" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
       <c r="I11" s="11">
         <f>VLOOKUP(B11,Catálogo!A:F,5,FALSE)</f>
@@ -2346,17 +2320,17 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="10" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="C12" s="10" t="str">
         <f>VLOOKUP(B12,Catálogo!A:B,2,0)</f>
         <v>Hidrocortisona</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="E12">
         <v>3000</v>
@@ -2365,10 +2339,10 @@
         <v>2800</v>
       </c>
       <c r="G12" s="26" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
       <c r="H12" s="26" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
       <c r="I12" s="11">
         <f>VLOOKUP(B12,Catálogo!A:F,5,FALSE)</f>
@@ -2381,17 +2355,17 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="10" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="C13" s="10" t="str">
         <f>VLOOKUP(B13,Catálogo!A:B,2,0)</f>
         <v>Diclofenaco Sódico</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
       <c r="E13">
         <v>20000</v>
@@ -2400,10 +2374,10 @@
         <v>19000</v>
       </c>
       <c r="G13" s="26" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
       <c r="H13" s="26" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
       <c r="I13" s="11">
         <f>VLOOKUP(B13,Catálogo!A:F,5,FALSE)</f>
@@ -2416,17 +2390,17 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="10" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="C14" s="10" t="str">
         <f>VLOOKUP(B14,Catálogo!A:B,2,0)</f>
         <v>Clorfenamina</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
       <c r="E14">
         <v>8000</v>
@@ -2435,10 +2409,10 @@
         <v>7800</v>
       </c>
       <c r="G14" s="26" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="H14" s="26" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="I14" s="11">
         <f>VLOOKUP(B14,Catálogo!A:F,5,FALSE)</f>
@@ -2451,17 +2425,17 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="10" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="C15" s="10" t="str">
         <f>VLOOKUP(B15,Catálogo!A:B,2,0)</f>
         <v>Loratadina</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
       <c r="E15">
         <v>10000</v>
@@ -2470,10 +2444,10 @@
         <v>9500</v>
       </c>
       <c r="G15" s="26" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="H15" s="26" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
       <c r="I15" s="11">
         <f>VLOOKUP(B15,Catálogo!A:F,5,FALSE)</f>
@@ -2486,17 +2460,17 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="10" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="C16" s="10" t="str">
         <f>VLOOKUP(B16,Catálogo!A:B,2,0)</f>
         <v>Amiodarona</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
       <c r="E16">
         <v>3000</v>
@@ -2505,10 +2479,10 @@
         <v>2800</v>
       </c>
       <c r="G16" s="26" t="s">
-        <v>175</v>
+        <v>164</v>
       </c>
       <c r="H16" s="26" t="s">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="I16" s="11">
         <f>VLOOKUP(B16,Catálogo!A:F,5,FALSE)</f>
@@ -2521,17 +2495,17 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="10" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="C17" s="10" t="str">
         <f>VLOOKUP(B17,Catálogo!A:B,2,0)</f>
         <v>Furosemida</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>160</v>
+        <v>149</v>
       </c>
       <c r="E17">
         <v>10000</v>
@@ -2540,10 +2514,10 @@
         <v>9700</v>
       </c>
       <c r="G17" s="26" t="s">
-        <v>177</v>
+        <v>166</v>
       </c>
       <c r="H17" s="26" t="s">
-        <v>178</v>
+        <v>167</v>
       </c>
       <c r="I17" s="11">
         <f>VLOOKUP(B17,Catálogo!A:F,5,FALSE)</f>
@@ -2556,17 +2530,17 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="10" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="C18" s="10" t="str">
         <f>VLOOKUP(B18,Catálogo!A:B,2,0)</f>
         <v>Prednisona</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
       <c r="E18">
         <v>8000</v>
@@ -2591,17 +2565,17 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="10" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="C19" s="10" t="str">
         <f>VLOOKUP(B19,Catálogo!A:B,2,0)</f>
         <v>Eritromicina</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
       <c r="E19">
         <v>6000</v>
@@ -2610,10 +2584,10 @@
         <v>5900</v>
       </c>
       <c r="G19" s="26" t="s">
-        <v>179</v>
+        <v>168</v>
       </c>
       <c r="H19" s="26" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="I19" s="11">
         <f>VLOOKUP(B19,Catálogo!A:F,5,FALSE)</f>
@@ -2626,17 +2600,17 @@
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="10" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="C20" s="10" t="str">
         <f>VLOOKUP(B20,Catálogo!A:B,2,0)</f>
         <v>Ranitidina</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
       <c r="E20">
         <v>7000</v>
@@ -2645,7 +2619,7 @@
         <v>6700</v>
       </c>
       <c r="G20" s="26" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
       <c r="H20" s="26">
         <v>45915</v>
@@ -2661,17 +2635,17 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="10" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="C21" s="10" t="str">
         <f>VLOOKUP(B21,Catálogo!A:B,2,0)</f>
         <v>Ketorolaco</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>164</v>
+        <v>153</v>
       </c>
       <c r="E21">
         <v>4000</v>
@@ -2680,10 +2654,10 @@
         <v>3900</v>
       </c>
       <c r="G21" s="26" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
       <c r="H21" s="26" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="I21" s="11">
         <f>VLOOKUP(B21,Catálogo!A:F,5,FALSE)</f>
@@ -2724,8 +2698,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B2DD2F9-1CC9-4744-AF0B-6F5BCD540E28}">
   <dimension ref="A1:N50"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="88" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+    <sheetView zoomScale="72" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2762,13 +2736,13 @@
         <v>19</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="H1" s="7" t="s">
-        <v>221</v>
+        <v>210</v>
       </c>
       <c r="I1" s="7" t="s">
         <v>11</v>
@@ -2783,10 +2757,10 @@
         <v>21</v>
       </c>
       <c r="M1" s="9" t="s">
+        <v>220</v>
+      </c>
+      <c r="N1" s="9" t="s">
         <v>22</v>
-      </c>
-      <c r="N1" s="9" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="60.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -2794,13 +2768,13 @@
         <v>45884</v>
       </c>
       <c r="B2" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="C2" s="6" t="s">
-        <v>76</v>
-      </c>
       <c r="D2" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E2" s="6" t="str">
         <f>IFERROR(VLOOKUP(TRIM(D2),Catálogo!A:B,2,FALSE),"❌ No encontrado")</f>
@@ -2819,7 +2793,7 @@
         <v xml:space="preserve">Compra Nacional </v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J2" s="6">
         <f>VLOOKUP(I2,Inventario_Lotes!$D:$J,2,FALSE)</f>
@@ -2827,33 +2801,33 @@
       </c>
       <c r="K2" s="13">
         <f>IFERROR(VLOOKUP(TRIM(D2),Catálogo!A:E,5,FALSE),"")</f>
-        <v>40</v>
+        <v>1.4</v>
       </c>
       <c r="L2" s="13">
         <f>J2*K2</f>
-        <v>40000</v>
+        <v>1400</v>
       </c>
       <c r="M2" s="13">
         <f>L2*0.13</f>
-        <v>5200</v>
+        <v>182</v>
       </c>
       <c r="N2" s="13">
         <f>L2+M2</f>
-        <v>45200</v>
+        <v>1582</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="57" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="B3" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="C3" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="C3" s="7" t="s">
-        <v>79</v>
-      </c>
       <c r="D3" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E3" s="6" t="str">
         <f>IFERROR(VLOOKUP(TRIM(D3),Catálogo!A:B,2,FALSE),"❌ No encontrado")</f>
@@ -2872,7 +2846,7 @@
         <v xml:space="preserve">Compra Nacional </v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
       <c r="J3" s="6">
         <f>VLOOKUP(I3,Inventario_Lotes!$D:$J,2,FALSE)</f>
@@ -2897,16 +2871,16 @@
     </row>
     <row r="4" spans="1:14" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B4" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="C4" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="C4" s="7" t="s">
-        <v>81</v>
-      </c>
       <c r="D4" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E4" s="6" t="str">
         <f>IFERROR(VLOOKUP(TRIM(D4),Catálogo!A:B,2,FALSE),"❌ No encontrado")</f>
@@ -2914,7 +2888,7 @@
       </c>
       <c r="F4" s="7" t="str">
         <f>IFERROR(VLOOKUP(TRIM(D4),Catálogo!A:F,6,FALSE),"")</f>
-        <v>B</v>
+        <v>A</v>
       </c>
       <c r="G4" t="str">
         <f ca="1">IFERROR(VLOOKUP(I4,Inventario_Lotes!$D:$J,7,FALSE),"No encontrado")</f>
@@ -2925,7 +2899,7 @@
         <v xml:space="preserve">Compra Nacional </v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J4" s="6">
         <f>VLOOKUP(I4,Inventario_Lotes!$D:$J,2,FALSE)</f>
@@ -2953,13 +2927,13 @@
         <v>45809</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>203</v>
+        <v>192</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E5" s="6" t="str">
         <f>IFERROR(VLOOKUP(TRIM(D5),Catálogo!A:B,2,FALSE),"❌ No encontrado")</f>
@@ -2978,7 +2952,7 @@
         <v xml:space="preserve">Compra Nacional </v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="J5" s="6">
         <f>VLOOKUP(I5,Inventario_Lotes!$D:$J,2,FALSE)</f>
@@ -3006,13 +2980,13 @@
         <v>45723</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>204</v>
+        <v>193</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E6" s="6" t="str">
         <f>IFERROR(VLOOKUP(TRIM(D6),Catálogo!A:B,2,FALSE),"❌ No encontrado")</f>
@@ -3031,7 +3005,7 @@
         <v>Importación</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="J6" s="6">
         <f>VLOOKUP(I6,Inventario_Lotes!$D:$J,2,FALSE)</f>
@@ -3059,13 +3033,13 @@
         <v>45787</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E7" s="6" t="str">
         <f>IFERROR(VLOOKUP(TRIM(D7),Catálogo!A:B,2,FALSE),"❌ No encontrado")</f>
@@ -3084,7 +3058,7 @@
         <v xml:space="preserve">Compra Nacional </v>
       </c>
       <c r="I7" s="7" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="J7" s="6">
         <f>VLOOKUP(I7,Inventario_Lotes!$D:$J,2,FALSE)</f>
@@ -3112,13 +3086,13 @@
         <v>45666</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>189</v>
+        <v>178</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>206</v>
+        <v>195</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E8" s="6" t="str">
         <f>IFERROR(VLOOKUP(TRIM(D8),Catálogo!A:B,2,FALSE),"❌ No encontrado")</f>
@@ -3137,7 +3111,7 @@
         <v xml:space="preserve">Compra Nacional </v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="J8" s="6">
         <f>VLOOKUP(I8,Inventario_Lotes!$D:$J,2,FALSE)</f>
@@ -3165,13 +3139,13 @@
         <v>45856</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E9" s="6" t="str">
         <f>IFERROR(VLOOKUP(TRIM(D9),Catálogo!A:B,2,FALSE),"❌ No encontrado")</f>
@@ -3179,7 +3153,7 @@
       </c>
       <c r="F9" s="7" t="str">
         <f>IFERROR(VLOOKUP(TRIM(D9),Catálogo!A:F,6,FALSE),"")</f>
-        <v>B</v>
+        <v>A</v>
       </c>
       <c r="G9" t="str">
         <f ca="1">IFERROR(VLOOKUP(I9,Inventario_Lotes!$D:$J,7,FALSE),"No encontrado")</f>
@@ -3190,7 +3164,7 @@
         <v xml:space="preserve">Compra Nacional </v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="J9" s="6">
         <f>VLOOKUP(I9,Inventario_Lotes!$D:$J,2,FALSE)</f>
@@ -3218,13 +3192,13 @@
         <v>45891</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>191</v>
+        <v>180</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>208</v>
+        <v>197</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="E10" s="6" t="str">
         <f>IFERROR(VLOOKUP(TRIM(D10),Catálogo!A:B,2,FALSE),"❌ No encontrado")</f>
@@ -3232,7 +3206,7 @@
       </c>
       <c r="F10" s="7" t="str">
         <f>IFERROR(VLOOKUP(TRIM(D10),Catálogo!A:F,6,FALSE),"")</f>
-        <v>B</v>
+        <v>A</v>
       </c>
       <c r="G10" t="str">
         <f ca="1">IFERROR(VLOOKUP(I10,Inventario_Lotes!$D:$J,7,FALSE),"No encontrado")</f>
@@ -3243,7 +3217,7 @@
         <v xml:space="preserve">Compra Nacional </v>
       </c>
       <c r="I10" s="7" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="J10" s="6">
         <f>VLOOKUP(I10,Inventario_Lotes!$D:$J,2,FALSE)</f>
@@ -3271,13 +3245,13 @@
         <v>45895</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>209</v>
+        <v>198</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="E11" s="6" t="str">
         <f>IFERROR(VLOOKUP(TRIM(D11),Catálogo!A:B,2,FALSE),"❌ No encontrado")</f>
@@ -3296,7 +3270,7 @@
         <v>Donación</v>
       </c>
       <c r="I11" s="7" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="J11" s="6">
         <f>VLOOKUP(I11,Inventario_Lotes!$D:$J,2,FALSE)</f>
@@ -3324,13 +3298,13 @@
         <v>45898</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>210</v>
+        <v>199</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="E12" s="6" t="str">
         <f>IFERROR(VLOOKUP(TRIM(D12),Catálogo!A:B,2,FALSE),"❌ No encontrado")</f>
@@ -3349,7 +3323,7 @@
         <v xml:space="preserve">Compra Nacional </v>
       </c>
       <c r="I12" s="7" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="J12" s="6">
         <f>VLOOKUP(I12,Inventario_Lotes!$D:$J,2,FALSE)</f>
@@ -3377,13 +3351,13 @@
         <v>45900</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>211</v>
+        <v>200</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="E13" s="6" t="str">
         <f>IFERROR(VLOOKUP(TRIM(D13),Catálogo!A:B,2,FALSE),"❌ No encontrado")</f>
@@ -3402,7 +3376,7 @@
         <v>Importación</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
       <c r="J13" s="6">
         <f>VLOOKUP(I13,Inventario_Lotes!$D:$J,2,FALSE)</f>
@@ -3430,13 +3404,13 @@
         <v>45901</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>212</v>
+        <v>201</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="E14" s="6" t="str">
         <f>IFERROR(VLOOKUP(TRIM(D14),Catálogo!A:B,2,FALSE),"❌ No encontrado")</f>
@@ -3444,7 +3418,7 @@
       </c>
       <c r="F14" s="7" t="str">
         <f>IFERROR(VLOOKUP(TRIM(D14),Catálogo!A:F,6,FALSE),"")</f>
-        <v>C</v>
+        <v>A</v>
       </c>
       <c r="G14" t="str">
         <f ca="1">IFERROR(VLOOKUP(I14,Inventario_Lotes!$D:$J,7,FALSE),"No encontrado")</f>
@@ -3455,7 +3429,7 @@
         <v>Importación</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
       <c r="J14" s="6">
         <f>VLOOKUP(I14,Inventario_Lotes!$D:$J,2,FALSE)</f>
@@ -3483,13 +3457,13 @@
         <v>45904</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="E15" s="6" t="str">
         <f>IFERROR(VLOOKUP(TRIM(D15),Catálogo!A:B,2,FALSE),"❌ No encontrado")</f>
@@ -3497,7 +3471,7 @@
       </c>
       <c r="F15" s="7" t="str">
         <f>IFERROR(VLOOKUP(TRIM(D15),Catálogo!A:F,6,FALSE),"")</f>
-        <v>C</v>
+        <v>A</v>
       </c>
       <c r="G15" t="str">
         <f ca="1">IFERROR(VLOOKUP(I15,Inventario_Lotes!$D:$J,7,FALSE),"No encontrado")</f>
@@ -3508,7 +3482,7 @@
         <v xml:space="preserve">Compra Nacional </v>
       </c>
       <c r="I15" s="7" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
       <c r="J15" s="6">
         <f>VLOOKUP(I15,Inventario_Lotes!$D:$J,2,FALSE)</f>
@@ -3536,13 +3510,13 @@
         <v>45690</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>214</v>
+        <v>203</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="E16" s="6" t="str">
         <f>IFERROR(VLOOKUP(TRIM(D16),Catálogo!A:B,2,FALSE),"❌ No encontrado")</f>
@@ -3561,7 +3535,7 @@
         <v>Importación</v>
       </c>
       <c r="I16" s="7" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
       <c r="J16" s="6">
         <f>VLOOKUP(I16,Inventario_Lotes!$D:$J,2,FALSE)</f>
@@ -3589,13 +3563,13 @@
         <v>45908</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>198</v>
+        <v>187</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>215</v>
+        <v>204</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="E17" s="6" t="str">
         <f>IFERROR(VLOOKUP(TRIM(D17),Catálogo!A:B,2,FALSE),"❌ No encontrado")</f>
@@ -3603,7 +3577,7 @@
       </c>
       <c r="F17" s="7" t="str">
         <f>IFERROR(VLOOKUP(TRIM(D17),Catálogo!A:F,6,FALSE),"")</f>
-        <v>B</v>
+        <v>A</v>
       </c>
       <c r="G17" t="str">
         <f ca="1">IFERROR(VLOOKUP(I17,Inventario_Lotes!$D:$J,7,FALSE),"No encontrado")</f>
@@ -3614,7 +3588,7 @@
         <v>Donación</v>
       </c>
       <c r="I17" s="7" t="s">
-        <v>160</v>
+        <v>149</v>
       </c>
       <c r="J17" s="6">
         <f>VLOOKUP(I17,Inventario_Lotes!$D:$J,2,FALSE)</f>
@@ -3642,13 +3616,13 @@
         <v>45925</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>199</v>
+        <v>188</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>216</v>
+        <v>205</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="E18" s="6" t="str">
         <f>IFERROR(VLOOKUP(TRIM(D18),Catálogo!A:B,2,FALSE),"❌ No encontrado")</f>
@@ -3656,7 +3630,7 @@
       </c>
       <c r="F18" s="7" t="str">
         <f>IFERROR(VLOOKUP(TRIM(D18),Catálogo!A:F,6,FALSE),"")</f>
-        <v>B</v>
+        <v>A</v>
       </c>
       <c r="G18" t="str">
         <f ca="1">IFERROR(VLOOKUP(I18,Inventario_Lotes!$D:$J,7,FALSE),"No encontrado")</f>
@@ -3667,7 +3641,7 @@
         <v>Donación</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
       <c r="J18" s="6">
         <f>VLOOKUP(I18,Inventario_Lotes!$D:$J,2,FALSE)</f>
@@ -3695,13 +3669,13 @@
         <v>45931</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>200</v>
+        <v>189</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>217</v>
+        <v>206</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="E19" s="6" t="str">
         <f>IFERROR(VLOOKUP(TRIM(D19),Catálogo!A:B,2,FALSE),"❌ No encontrado")</f>
@@ -3720,7 +3694,7 @@
         <v xml:space="preserve">Compra Nacional </v>
       </c>
       <c r="I19" s="7" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
       <c r="J19" s="6">
         <f>VLOOKUP(I19,Inventario_Lotes!$D:$J,2,FALSE)</f>
@@ -3748,13 +3722,13 @@
         <v>45934</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>201</v>
+        <v>190</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="E20" s="6" t="str">
         <f>IFERROR(VLOOKUP(TRIM(D20),Catálogo!A:B,2,FALSE),"❌ No encontrado")</f>
@@ -3762,7 +3736,7 @@
       </c>
       <c r="F20" s="7" t="str">
         <f>IFERROR(VLOOKUP(TRIM(D20),Catálogo!A:F,6,FALSE),"")</f>
-        <v>B</v>
+        <v>A</v>
       </c>
       <c r="G20" t="str">
         <f ca="1">IFERROR(VLOOKUP(I20,Inventario_Lotes!$D:$J,7,FALSE),"No encontrado")</f>
@@ -3773,7 +3747,7 @@
         <v xml:space="preserve">Compra Nacional </v>
       </c>
       <c r="I20" s="7" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
       <c r="J20" s="6">
         <f>VLOOKUP(I20,Inventario_Lotes!$D:$J,2,FALSE)</f>
@@ -3801,13 +3775,13 @@
         <v>45956</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>202</v>
+        <v>191</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>219</v>
+        <v>208</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="E21" s="6" t="str">
         <f>IFERROR(VLOOKUP(TRIM(D21),Catálogo!A:B,2,FALSE),"❌ No encontrado")</f>
@@ -3826,7 +3800,7 @@
         <v>Importación</v>
       </c>
       <c r="I21" s="7" t="s">
-        <v>164</v>
+        <v>153</v>
       </c>
       <c r="J21" s="6">
         <f>VLOOKUP(I21,Inventario_Lotes!$D:$J,2,FALSE)</f>
@@ -4004,8 +3978,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{953FA125-C20F-4A67-8AC4-5554B9900DC5}">
   <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4027,10 +4001,10 @@
         <v>16</v>
       </c>
       <c r="B1" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="7" t="s">
         <v>24</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>25</v>
       </c>
       <c r="D1" s="7" t="s">
         <v>9</v>
@@ -4042,52 +4016,35 @@
         <v>11</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>230</v>
+        <v>219</v>
       </c>
       <c r="H1" s="20" t="s">
         <v>15</v>
       </c>
       <c r="I1" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J1" s="7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="12">
         <v>45889</v>
       </c>
       <c r="B2" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="C2" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="E2" s="6" t="str">
-        <f>VLOOKUP(D2,Catálogo!A:B,2,0)</f>
-        <v>Insulina NPH</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="G2" s="6">
-        <v>300</v>
-      </c>
-      <c r="H2" s="21">
-        <f>IFERROR(VLOOKUP(TRIM(F2),Inventario_Lotes!D:I,6,FALSE),"❌ No encontrado")</f>
-        <v>40</v>
-      </c>
-      <c r="I2" s="13">
-        <f>IFERROR(G2*H2,"")</f>
-        <v>12000</v>
-      </c>
-      <c r="J2" s="6" t="s">
-        <v>84</v>
-      </c>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="6"/>
     </row>
   </sheetData>
   <dataValidations xWindow="466" yWindow="398" count="1">
@@ -4104,7 +4061,7 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="A3" sqref="A3:G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4123,136 +4080,37 @@
         <v>16</v>
       </c>
       <c r="B1" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" t="s">
         <v>27</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>28</v>
-      </c>
-      <c r="D1" t="s">
-        <v>29</v>
       </c>
       <c r="E1" t="s">
         <v>9</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="G1" s="14" t="s">
-        <v>31</v>
-      </c>
     </row>
     <row r="2" spans="1:7" s="18" customFormat="1" ht="28.8" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="B3" s="7">
-        <v>1</v>
-      </c>
-      <c r="C3" t="s">
-        <v>85</v>
-      </c>
-      <c r="D3" t="s">
-        <v>86</v>
-      </c>
-      <c r="E3" t="s">
-        <v>37</v>
-      </c>
-      <c r="F3" s="2">
-        <f>IFERROR(VLOOKUP(E3,Libro_Compras!D:N,7,FALSE),0)</f>
-        <v>1000</v>
-      </c>
-      <c r="G3" s="14">
-        <f>IFERROR(VLOOKUP(D3,Libro_Compras!E:N,10,FALSE),0)</f>
-        <v>0</v>
-      </c>
-    </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="8">
-        <v>45884</v>
-      </c>
-      <c r="B4" s="7">
-        <v>1</v>
-      </c>
-      <c r="C4" t="s">
-        <v>85</v>
-      </c>
-      <c r="D4" t="s">
-        <v>88</v>
-      </c>
-      <c r="E4" t="s">
-        <v>37</v>
-      </c>
-      <c r="F4" s="2">
-        <f>IFERROR(VLOOKUP(E4,Libro_Compras!D:N,8,FALSE),0)</f>
-        <v>40</v>
-      </c>
-      <c r="G4" s="14" t="s">
-        <v>87</v>
-      </c>
+      <c r="A4" s="8"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="B5" s="7">
-        <v>1</v>
-      </c>
-      <c r="C5" t="s">
-        <v>85</v>
-      </c>
-      <c r="D5" s="14" t="s">
-        <v>97</v>
-      </c>
-      <c r="E5" t="s">
-        <v>37</v>
-      </c>
-      <c r="G5" s="14">
-        <f>IFERROR(VLOOKUP(E5,Libro_Compras!D:N,9,FALSE),0)</f>
-        <v>40000</v>
-      </c>
+      <c r="D5" s="14"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="B10" s="7">
-        <v>2</v>
-      </c>
-      <c r="C10" t="s">
-        <v>90</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="E10" t="s">
-        <v>37</v>
-      </c>
-      <c r="F10" s="2">
-        <f>IFERROR(VLOOKUP(E10,Libro_Salidas!D:I,6,FALSE),0)</f>
-        <v>12000</v>
-      </c>
+      <c r="D10" s="2"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="B11" s="5">
-        <v>2</v>
-      </c>
-      <c r="C11" t="s">
-        <v>90</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="E11" t="s">
-        <v>37</v>
-      </c>
-      <c r="G11" s="14">
-        <f>IFERROR(VLOOKUP(E11,Libro_Salidas!D:I,6,FALSE),0)</f>
-        <v>12000</v>
-      </c>
+      <c r="B11" s="5"/>
+      <c r="D11" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4264,7 +4122,7 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView zoomScale="118" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E1048576"/>
+      <selection activeCell="A2" sqref="A2:F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4278,99 +4136,48 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>16</v>
       </c>
       <c r="C1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>33</v>
-      </c>
       <c r="E1" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F1" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="16" t="s">
-        <v>92</v>
-      </c>
+      <c r="A2" s="16"/>
     </row>
     <row r="3" spans="1:6" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="8">
-        <v>45884</v>
-      </c>
-      <c r="C3" s="7" t="str">
-        <f>IF(D3&gt;0,"Compra de medicamentos",IF(E3&gt;0,"Despacho de medicamentos",""))</f>
-        <v>Compra de medicamentos</v>
-      </c>
-      <c r="D3" s="2">
-        <f>IFERROR(VLOOKUP(B3,Libro_Compras!A:N,12,FALSE),0)</f>
-        <v>40000</v>
-      </c>
-      <c r="E3" s="2">
-        <f>IFERROR(VLOOKUP(B3,Libro_Salidas!A:J,9,FALSE),0)</f>
-        <v>0</v>
-      </c>
-      <c r="F3" s="22">
-        <f xml:space="preserve"> D3 - E3</f>
-        <v>40000</v>
-      </c>
+      <c r="B3" s="8"/>
+      <c r="C3" s="7"/>
+      <c r="F3" s="22"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B4" s="8">
-        <v>45885</v>
-      </c>
-      <c r="C4" s="7" t="str">
-        <f t="shared" ref="C4:C5" si="0">IF(D4&gt;0,"Compra de medicamentos",IF(E4&gt;0,"Despacho de medicamentos",""))</f>
-        <v/>
-      </c>
-      <c r="D4" s="2">
-        <f>IFERROR(VLOOKUP(B4,Libro_Compras!A:N,12,FALSE),0)</f>
-        <v>0</v>
-      </c>
-      <c r="E4" s="2">
-        <f>IFERROR(VLOOKUP(B4,Libro_Salidas!A:J,9,FALSE),0)</f>
-        <v>0</v>
-      </c>
-      <c r="F4" s="22">
-        <f xml:space="preserve"> F3 + D4 - E4</f>
-        <v>40000</v>
-      </c>
+      <c r="B4" s="8"/>
+      <c r="C4" s="7"/>
+      <c r="F4" s="22"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B5" s="8">
-        <v>45889</v>
-      </c>
-      <c r="C5" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>Despacho de medicamentos</v>
-      </c>
-      <c r="E5" s="2">
-        <f>IFERROR(VLOOKUP(B5,Libro_Salidas!A:J,9,FALSE),0)</f>
-        <v>12000</v>
-      </c>
-      <c r="F5" s="22">
-        <f xml:space="preserve"> F4 + D5 - E5</f>
-        <v>28000</v>
-      </c>
+      <c r="B5" s="8"/>
+      <c r="C5" s="7"/>
+      <c r="F5" s="22"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F6" s="22"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C7" s="15" t="s">
-        <v>93</v>
-      </c>
-      <c r="F7" s="23" cm="1">
-        <f t="array" ref="F7">LOOKUP(2,1/(VALUE(F3:F6)&lt;&gt;0),VALUE(F3:F6))</f>
-        <v>28000</v>
-      </c>
+      <c r="C7" s="15"/>
+      <c r="F7" s="23"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4397,7 +4204,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B1" s="7" t="s">
         <v>9</v>
@@ -4406,15 +4213,15 @@
         <v>1</v>
       </c>
       <c r="D1" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1" s="7" t="s">
         <v>35</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="B2" t="str" cm="1">
         <f t="array" ref="B2">IF(INDEX(Catálogo!I:I,ROW(A2))&lt;INDEX(Catálogo!G:G,ROW(A2)),INDEX(Catálogo!A:A,ROW(A2)),"")</f>
@@ -4435,7 +4242,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="B3" t="str" cm="1">
         <f t="array" ref="B3">IF(INDEX(Catálogo!I:I,ROW(A3))&lt;INDEX(Catálogo!G:G,ROW(A3)),INDEX(Catálogo!A:A,ROW(A3)),"")</f>
@@ -4456,7 +4263,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="B4" t="str" cm="1">
         <f t="array" ref="B4">IF(INDEX(Catálogo!I:I,ROW(A4))&lt;INDEX(Catálogo!G:G,ROW(A4)),INDEX(Catálogo!A:A,ROW(A4)),"")</f>
@@ -4477,7 +4284,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="B5" t="str" cm="1">
         <f t="array" ref="B5">IF(INDEX(Catálogo!I:I,ROW(A5))&lt;INDEX(Catálogo!G:G,ROW(A5)),INDEX(Catálogo!A:A,ROW(A5)),"")</f>
@@ -4498,7 +4305,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="B6" t="str" cm="1">
         <f t="array" ref="B6">IF(INDEX(Catálogo!I:I,ROW(A6))&lt;INDEX(Catálogo!G:G,ROW(A6)),INDEX(Catálogo!A:A,ROW(A6)),"")</f>
@@ -4519,7 +4326,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="B7" t="str" cm="1">
         <f t="array" ref="B7">IF(INDEX(Catálogo!I:I,ROW(A7))&lt;INDEX(Catálogo!G:G,ROW(A7)),INDEX(Catálogo!A:A,ROW(A7)),"")</f>
@@ -4540,7 +4347,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="B8" t="str" cm="1">
         <f t="array" ref="B8">IF(INDEX(Catálogo!I:I,ROW(A8))&lt;INDEX(Catálogo!G:G,ROW(A8)),INDEX(Catálogo!A:A,ROW(A8)),"")</f>
@@ -4561,7 +4368,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="B9" t="str" cm="1">
         <f t="array" ref="B9">IF(INDEX(Catálogo!I:I,ROW(A9))&lt;INDEX(Catálogo!G:G,ROW(A9)),INDEX(Catálogo!A:A,ROW(A9)),"")</f>
@@ -4582,7 +4389,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="B10" t="str" cm="1">
         <f t="array" ref="B10">IF(INDEX(Catálogo!I:I,ROW(A10))&lt;INDEX(Catálogo!G:G,ROW(A10)),INDEX(Catálogo!A:A,ROW(A10)),"")</f>
@@ -4603,7 +4410,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="B11" t="str" cm="1">
         <f t="array" ref="B11">IF(INDEX(Catálogo!I:I,ROW(A11))&lt;INDEX(Catálogo!G:G,ROW(A11)),INDEX(Catálogo!A:A,ROW(A11)),"")</f>
@@ -4624,7 +4431,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="B12" t="str" cm="1">
         <f t="array" ref="B12">IF(INDEX(Catálogo!I:I,ROW(A12))&lt;INDEX(Catálogo!G:G,ROW(A12)),INDEX(Catálogo!A:A,ROW(A12)),"")</f>
@@ -4645,7 +4452,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="B13" t="str" cm="1">
         <f t="array" ref="B13">IF(INDEX(Catálogo!I:I,ROW(A13))&lt;INDEX(Catálogo!G:G,ROW(A13)),INDEX(Catálogo!A:A,ROW(A13)),"")</f>
@@ -4666,7 +4473,7 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="B14" t="str" cm="1">
         <f t="array" ref="B14">IF(INDEX(Catálogo!I:I,ROW(A14))&lt;INDEX(Catálogo!G:G,ROW(A14)),INDEX(Catálogo!A:A,ROW(A14)),"")</f>
@@ -4687,7 +4494,7 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="B15" t="str" cm="1">
         <f t="array" ref="B15">IF(INDEX(Catálogo!I:I,ROW(A15))&lt;INDEX(Catálogo!G:G,ROW(A15)),INDEX(Catálogo!A:A,ROW(A15)),"")</f>
@@ -4708,7 +4515,7 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="B16" t="str" cm="1">
         <f t="array" ref="B16">IF(INDEX(Catálogo!I:I,ROW(A16))&lt;INDEX(Catálogo!G:G,ROW(A16)),INDEX(Catálogo!A:A,ROW(A16)),"")</f>
@@ -4729,7 +4536,7 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="B17" t="str" cm="1">
         <f t="array" ref="B17">IF(INDEX(Catálogo!I:I,ROW(A17))&lt;INDEX(Catálogo!G:G,ROW(A17)),INDEX(Catálogo!A:A,ROW(A17)),"")</f>
@@ -4750,7 +4557,7 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="B18" t="str" cm="1">
         <f t="array" ref="B18">IF(INDEX(Catálogo!I:I,ROW(A18))&lt;INDEX(Catálogo!G:G,ROW(A18)),INDEX(Catálogo!A:A,ROW(A18)),"")</f>
@@ -4771,7 +4578,7 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="B19" t="str" cm="1">
         <f t="array" ref="B19">IF(INDEX(Catálogo!I:I,ROW(A19))&lt;INDEX(Catálogo!G:G,ROW(A19)),INDEX(Catálogo!A:A,ROW(A19)),"")</f>
@@ -4792,7 +4599,7 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="7" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="B20" t="str" cm="1">
         <f t="array" ref="B20">IF(INDEX(Catálogo!I:I,ROW(A20))&lt;INDEX(Catálogo!G:G,ROW(A20)),INDEX(Catálogo!A:A,ROW(A20)),"")</f>
@@ -4813,7 +4620,7 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="B21" t="str" cm="1">
         <f t="array" ref="B21">IF(INDEX(Catálogo!I:I,ROW(A21))&lt;INDEX(Catálogo!G:G,ROW(A21)),INDEX(Catálogo!A:A,ROW(A21)),"")</f>
@@ -4834,7 +4641,7 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="7" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="B22" t="str" cm="1">
         <f t="array" ref="B22">IF(INDEX(Catálogo!I:I,ROW(A22))&lt;INDEX(Catálogo!G:G,ROW(A22)),INDEX(Catálogo!A:A,ROW(A22)),"")</f>
@@ -4855,7 +4662,7 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="7" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="B23" t="str" cm="1">
         <f t="array" ref="B23">IF(INDEX(Catálogo!I:I,ROW(A23))&lt;INDEX(Catálogo!G:G,ROW(A23)),INDEX(Catálogo!A:A,ROW(A23)),"")</f>
@@ -4876,7 +4683,7 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="7" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="B24" t="str" cm="1">
         <f t="array" ref="B24">IF(INDEX(Catálogo!I:I,ROW(A24))&lt;INDEX(Catálogo!G:G,ROW(A24)),INDEX(Catálogo!A:A,ROW(A24)),"")</f>
@@ -4897,7 +4704,7 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="7" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="B25" t="str" cm="1">
         <f t="array" ref="B25">IF(INDEX(Catálogo!I:I,ROW(A25))&lt;INDEX(Catálogo!G:G,ROW(A25)),INDEX(Catálogo!A:A,ROW(A25)),"")</f>
@@ -4918,7 +4725,7 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="7" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="B26" t="str" cm="1">
         <f t="array" ref="B26">IF(INDEX(Catálogo!I:I,ROW(A26))&lt;INDEX(Catálogo!G:G,ROW(A26)),INDEX(Catálogo!A:A,ROW(A26)),"")</f>
@@ -4939,7 +4746,7 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="7" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="B27" t="str" cm="1">
         <f t="array" ref="B27">IF(INDEX(Catálogo!I:I,ROW(A27))&lt;INDEX(Catálogo!G:G,ROW(A27)),INDEX(Catálogo!A:A,ROW(A27)),"")</f>
@@ -4960,7 +4767,7 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="7" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="B28" t="str" cm="1">
         <f t="array" ref="B28">IF(INDEX(Catálogo!I:I,ROW(A28))&lt;INDEX(Catálogo!G:G,ROW(A28)),INDEX(Catálogo!A:A,ROW(A28)),"")</f>
@@ -4981,7 +4788,7 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="7" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="B29" t="str" cm="1">
         <f t="array" ref="B29">IF(INDEX(Catálogo!I:I,ROW(A29))&lt;INDEX(Catálogo!G:G,ROW(A29)),INDEX(Catálogo!A:A,ROW(A29)),"")</f>
@@ -5002,7 +4809,7 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="7" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="B30" t="str" cm="1">
         <f t="array" ref="B30">IF(INDEX(Catálogo!I:I,ROW(A30))&lt;INDEX(Catálogo!G:G,ROW(A30)),INDEX(Catálogo!A:A,ROW(A30)),"")</f>
@@ -5023,7 +4830,7 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="7" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="B31" t="str" cm="1">
         <f t="array" ref="B31">IF(INDEX(Catálogo!I:I,ROW(A31))&lt;INDEX(Catálogo!G:G,ROW(A31)),INDEX(Catálogo!A:A,ROW(A31)),"")</f>
@@ -5045,7 +4852,7 @@
     <row r="35" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="36" spans="1:5" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="7" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="B36" t="str">
         <f ca="1">IF((Inventario_Lotes!H2-TODAY())&lt;=30,Inventario_Lotes!D2,"")</f>
@@ -5057,7 +4864,7 @@
       </c>
       <c r="D36" t="str">
         <f ca="1">IF(B36&lt;&gt;"","Lote vence el "&amp;TEXT(VLOOKUP(B36,Inventario_Lotes!D:H,5,FALSE),"dd/mm/aaaa")&amp;" ("&amp;ROUND((VLOOKUP(B36,Inventario_Lotes!D:H,5,FALSE)-TODAY()),0)&amp;" días)","")</f>
-        <v>Lote vence el 01/08/jueves (-453 días)</v>
+        <v>Lote vence el 01/08/jueves (-454 días)</v>
       </c>
       <c r="E36" t="str">
         <f ca="1">IF(B36&lt;&gt;"","⚠️ USAR PRIORITARIAMENTE","")</f>
@@ -5066,7 +4873,7 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="7" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="B37" t="str">
         <f ca="1">IF((Inventario_Lotes!H3-TODAY())&lt;=30,Inventario_Lotes!D3,"")</f>
@@ -5087,7 +4894,7 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="7" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="B38" t="str">
         <f ca="1">IF((Inventario_Lotes!H4-TODAY())&lt;=30,Inventario_Lotes!D4,"")</f>
@@ -5108,7 +4915,7 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" s="7" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="B39" t="str">
         <f ca="1">IF((Inventario_Lotes!H5-TODAY())&lt;=30,Inventario_Lotes!D5,"")</f>
@@ -5129,7 +4936,7 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" s="7" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="B40" t="str">
         <f ca="1">IF((Inventario_Lotes!H6-TODAY())&lt;=30,Inventario_Lotes!D6,"")</f>
@@ -5141,7 +4948,7 @@
       </c>
       <c r="D40" t="str">
         <f ca="1">IF(B40&lt;&gt;"","Lote vence el "&amp;TEXT(VLOOKUP(B40,Inventario_Lotes!D:H,5,FALSE),"dd/mm/aaaa")&amp;" ("&amp;ROUND((VLOOKUP(B40,Inventario_Lotes!D:H,5,FALSE)-TODAY()),0)&amp;" días)","")</f>
-        <v>Lote vence el 10/11/lunes (13 días)</v>
+        <v>Lote vence el 10/11/lunes (12 días)</v>
       </c>
       <c r="E40" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -5150,7 +4957,7 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" s="7" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="B41" t="str">
         <f ca="1">IF((Inventario_Lotes!H7-TODAY())&lt;=30,Inventario_Lotes!D7,"")</f>
@@ -5171,7 +4978,7 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" s="7" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="B42" t="str">
         <f ca="1">IF((Inventario_Lotes!H8-TODAY())&lt;=30,Inventario_Lotes!D8,"")</f>
@@ -5192,7 +4999,7 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" s="7" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="B43" t="str">
         <f ca="1">IF((Inventario_Lotes!H9-TODAY())&lt;=30,Inventario_Lotes!D9,"")</f>
@@ -5213,7 +5020,7 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="7" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="B44" t="str">
         <f ca="1">IF((Inventario_Lotes!H10-TODAY())&lt;=30,Inventario_Lotes!D10,"")</f>
@@ -5234,7 +5041,7 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" s="7" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="B45" t="str">
         <f ca="1">IF((Inventario_Lotes!H11-TODAY())&lt;=30,Inventario_Lotes!D11,"")</f>
@@ -5255,7 +5062,7 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" s="7" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="B46" t="str">
         <f ca="1">IF((Inventario_Lotes!H12-TODAY())&lt;=30,Inventario_Lotes!D12,"")</f>
@@ -5276,7 +5083,7 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" s="7" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="B47" t="str">
         <f ca="1">IF((Inventario_Lotes!H13-TODAY())&lt;=30,Inventario_Lotes!D13,"")</f>
@@ -5297,7 +5104,7 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" s="7" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="B48" t="str">
         <f ca="1">IF((Inventario_Lotes!H14-TODAY())&lt;=30,Inventario_Lotes!D14,"")</f>
@@ -5318,7 +5125,7 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" s="7" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="B49" t="str">
         <f ca="1">IF((Inventario_Lotes!H15-TODAY())&lt;=30,Inventario_Lotes!D15,"")</f>
@@ -5339,7 +5146,7 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" s="7" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="B50" t="str">
         <f ca="1">IF((Inventario_Lotes!H16-TODAY())&lt;=30,Inventario_Lotes!D16,"")</f>
@@ -5379,170 +5186,170 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>222</v>
+        <v>211</v>
       </c>
       <c r="B1" t="s">
-        <v>223</v>
+        <v>212</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B2" t="s">
-        <v>224</v>
+        <v>213</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B3" t="s">
-        <v>224</v>
+        <v>213</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B4" t="s">
-        <v>224</v>
+        <v>213</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
-        <v>203</v>
+        <v>192</v>
       </c>
       <c r="B5" t="s">
-        <v>224</v>
+        <v>213</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
-        <v>204</v>
+        <v>193</v>
       </c>
       <c r="B6" t="s">
-        <v>225</v>
+        <v>214</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="B7" t="s">
-        <v>224</v>
+        <v>213</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
-        <v>206</v>
+        <v>195</v>
       </c>
       <c r="B8" t="s">
-        <v>224</v>
+        <v>213</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="B9" t="s">
-        <v>224</v>
+        <v>213</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
-        <v>208</v>
+        <v>197</v>
       </c>
       <c r="B10" t="s">
-        <v>224</v>
+        <v>213</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
-        <v>209</v>
+        <v>198</v>
       </c>
       <c r="B11" t="s">
-        <v>226</v>
+        <v>215</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
-        <v>210</v>
+        <v>199</v>
       </c>
       <c r="B12" t="s">
-        <v>224</v>
+        <v>213</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
-        <v>211</v>
+        <v>200</v>
       </c>
       <c r="B13" t="s">
-        <v>225</v>
+        <v>214</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
-        <v>212</v>
+        <v>201</v>
       </c>
       <c r="B14" t="s">
-        <v>225</v>
+        <v>214</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="B15" t="s">
         <v>213</v>
-      </c>
-      <c r="B15" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="B16" t="s">
         <v>214</v>
-      </c>
-      <c r="B16" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="B17" t="s">
         <v>215</v>
-      </c>
-      <c r="B17" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="s">
-        <v>216</v>
+        <v>205</v>
       </c>
       <c r="B18" t="s">
-        <v>226</v>
+        <v>215</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="6" t="s">
-        <v>217</v>
+        <v>206</v>
       </c>
       <c r="B19" t="s">
-        <v>224</v>
+        <v>213</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="6" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
       <c r="B20" t="s">
-        <v>224</v>
+        <v>213</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="6" t="s">
-        <v>219</v>
+        <v>208</v>
       </c>
       <c r="B21" t="s">
-        <v>225</v>
+        <v>214</v>
       </c>
     </row>
   </sheetData>
